--- a/biology/Microbiologie/Tatumella/Tatumella.xlsx
+++ b/biology/Microbiologie/Tatumella/Tatumella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tatumella est un genre de bacilles Gram négatifs de la famille des Erwiniaceae. Son nom fait référence au bactériologiste Harvey Tatum[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tatumella est un genre de bacilles Gram négatifs de la famille des Erwiniaceae. Son nom fait référence au bactériologiste Harvey Tatum
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 2016 ce genre était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Erwiniaceae nouvellement créée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 2016 ce genre était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Erwiniaceae nouvellement créée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la LPSN  (26 octobre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (26 octobre 2022) :
 Tatumella citrea (Kageyama et al. 1992) Brady et al. 2010
 Tatumella morbirosei Brady et al. 2010
 Tatumella ptyseos Hollis et al. 1982 – espèce type
